--- a/backend/attendance.xlsx
+++ b/backend/attendance.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Öğrenci NO</t>
   </si>
@@ -26,33 +26,6 @@
   </si>
   <si>
     <t>Çıkış Saati</t>
-  </si>
-  <si>
-    <t>21100011050</t>
-  </si>
-  <si>
-    <t>Sema Nur</t>
-  </si>
-  <si>
-    <t>EKMEKCİ</t>
-  </si>
-  <si>
-    <t>09:15:20</t>
-  </si>
-  <si>
-    <t>11:55:00</t>
-  </si>
-  <si>
-    <t>21100011027</t>
-  </si>
-  <si>
-    <t>Senanur</t>
-  </si>
-  <si>
-    <t>İNCEKARA</t>
-  </si>
-  <si>
-    <t>09:10:13</t>
   </si>
 </sst>
 </file>
@@ -98,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -121,40 +94,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
